--- a/docs/Personagens.xlsx
+++ b/docs/Personagens.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-30" windowWidth="19440" windowHeight="8160"/>
+    <workbookView xWindow="60" yWindow="-30" windowWidth="15600" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
-  <si>
-    <t>Erik</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Altura</t>
   </si>
@@ -36,9 +33,6 @@
     <t>Cabelo</t>
   </si>
   <si>
-    <t>Cientista/Pai</t>
-  </si>
-  <si>
     <t>Ancião 2</t>
   </si>
   <si>
@@ -154,13 +148,49 @@
   </si>
   <si>
     <t>um tom de voz agradavel</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>Cientista/Pai/Frank</t>
+  </si>
+  <si>
+    <t>Castanho escuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morreu aos 35    </t>
+  </si>
+  <si>
+    <t>vestido branco</t>
+  </si>
+  <si>
+    <t>Parda (clara)</t>
+  </si>
+  <si>
+    <t>Compreensiva,calma focada, inteligente.  Muito apegada aos filhos.</t>
+  </si>
+  <si>
+    <t>Fina e suave</t>
+  </si>
+  <si>
+    <t>Escorrido</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Blusa/vestido vermelho, calça preta.</t>
+  </si>
+  <si>
+    <t>Blusa azul, calça branca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,6 +319,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,215 +613,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1.76</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.79</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="78.75">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7">
-        <v>65</v>
-      </c>
-      <c r="F7" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:7">
+      <c r="B15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -798,24 +864,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
